--- a/model/results/mix1_ggpos_h2pos/v_inv_tech.xlsx
+++ b/model/results/mix1_ggpos_h2pos/v_inv_tech.xlsx
@@ -787,10 +787,10 @@
         <v>606923076.9230773</v>
       </c>
       <c r="D3" t="n">
-        <v>746862470.6686826</v>
+        <v>606923076.923077</v>
       </c>
       <c r="E3" t="n">
-        <v>241500000</v>
+        <v>185769230.7692308</v>
       </c>
       <c r="F3" t="n">
         <v>241500000</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8.550614240392706e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>8.555012704508134e-05</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>12000000.00000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>10200000.00000001</v>
+        <v>10199999.99999966</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10200000.00000001</v>
+        <v>10199999.99999966</v>
       </c>
       <c r="AK5" t="n">
         <v>24000000.00000002</v>
@@ -1154,19 +1154,19 @@
         <v>24000000.00000002</v>
       </c>
       <c r="AM5" t="n">
-        <v>10200000.00000001</v>
+        <v>10199999.99999966</v>
       </c>
       <c r="AN5" t="n">
-        <v>18000000.00000001</v>
+        <v>17999999.9999994</v>
       </c>
       <c r="AO5" t="n">
         <v>10200000.00000001</v>
       </c>
       <c r="AP5" t="n">
-        <v>10200000.00000001</v>
+        <v>10199999.99999966</v>
       </c>
       <c r="AQ5" t="n">
-        <v>10200000.00000001</v>
+        <v>10199999.99999966</v>
       </c>
     </row>
     <row r="6">
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>876666666.666667</v>
+        <v>876666666.6666666</v>
       </c>
       <c r="C6" t="n">
-        <v>447258622.5950461</v>
+        <v>772957276.0736102</v>
       </c>
       <c r="D6" t="n">
-        <v>876666666.6666666</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>268333333.3333333</v>
+      </c>
+      <c r="F6" t="n">
         <v>161000000</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1255,10 +1255,10 @@
         <v>750000</v>
       </c>
       <c r="AC6" t="n">
-        <v>18000000</v>
+        <v>17999999.99999515</v>
       </c>
       <c r="AD6" t="n">
-        <v>4500000</v>
+        <v>4499999.999995152</v>
       </c>
       <c r="AE6" t="n">
         <v>40500000</v>
@@ -1273,10 +1273,10 @@
         <v>84000000.00000019</v>
       </c>
       <c r="AI6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AJ6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AK6" t="n">
         <v>168000000.0000004</v>
@@ -1285,19 +1285,19 @@
         <v>168000000.0000004</v>
       </c>
       <c r="AM6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AN6" t="n">
-        <v>126000000.0000002</v>
+        <v>126000000.0000025</v>
       </c>
       <c r="AO6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AP6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AQ6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
     </row>
     <row r="7">
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1323608044.071626</v>
+        <v>997909390.5930564</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>876666666.6666666</v>
       </c>
       <c r="E7" t="n">
-        <v>268333333.3333333</v>
+        <v>273700000</v>
       </c>
       <c r="F7" t="n">
         <v>268333333.3333333</v>
@@ -1436,13 +1436,13 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>894200000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>561224.4897959183</v>
       </c>
       <c r="AC9" t="n">
-        <v>13469387.75510204</v>
+        <v>13469387.75510011</v>
       </c>
       <c r="AD9" t="n">
-        <v>3367346.93877551</v>
+        <v>3367346.938773578</v>
       </c>
       <c r="AE9" t="n">
         <v>30306122.44897959</v>
@@ -1698,13 +1698,13 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>894200000</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>894200000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>273700000</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>273700000</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>273699999.9999987</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
